--- a/docs/PT1/PT1_01.08.24_output.xlsx
+++ b/docs/PT1/PT1_01.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1211 +505,1434 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731002617.1982849</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731002621.333628</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731002617.1982849.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731002621.333628.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>289.66</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>290.06</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.3999999999999773</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731002686.5246277</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731002687.226314</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731002686.5246277.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731002687.226314.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>6770</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>6755</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>15</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731002717.9869258</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731002719.9685788</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731002717.9869258.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731002719.9685788.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>516.65</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>515.75</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.8999999999999773</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731002750.5108185</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731002753.1960256</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731002750.5108185.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731002753.1960256.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>233.13</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>232.72</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.4099999999999966</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731002771.1781092</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731002774.7137423</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731002771.1781092.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731002774.7137423.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>232.41</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>231.48</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.9300000000000068</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731002782.7016325</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731002785.334837</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731002782.7016325.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731002785.334837.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>1048.4</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>1047.4</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731002848.6456473</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731002850.8067234</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731002848.6456473.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731002850.8067234.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>166.4</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>165.88</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.5200000000000102</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731002856.1234388</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731002858.8728342</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731002856.1234388.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731002858.8728342.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>166.8</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>166.52</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731002881.802764</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731002882.71241</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731002881.802764.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731002882.71241.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>50.925</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>50.81</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.1149999999999949</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731002887.2098377</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731002887.7813919</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731002887.2098377.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731002887.7813919.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>50.92</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>50.855</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.06500000000000483</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731002888.0935564</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731002891.3246224</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731002888.0935564.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731002891.3246224.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>50.945</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>50.905</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.03999999999999915</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731002899.380701</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731002902.346989</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731002899.380701.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731002902.346989.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>50.98</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>50.9</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731002921.9494061</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731002926.3089752</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731002921.9494061.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731002926.3089752.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>1418.4</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>1419.2</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.7999999999999545</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731002947.9299183</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731002949.0216787</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731002947.9299183.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731002949.0216787.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>61.18</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>61.01</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.1700000000000017</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731002953.1905928</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731002954.3312724</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731002953.1905928.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731002954.3312724.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>61.16</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>60.94</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731002955.3331263</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731002958.2271378</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731002955.3331263.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731002958.2271378.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>61.19</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>61.26</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.07000000000000028</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731003041.1143227</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731003041.1143227.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731003041.1143227.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>143.52</v>
       </c>
-      <c r="J19" t="n">
-        <v>143.52</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
+      <c r="L19" t="n">
+        <v>142.98</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.5400000000000205</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731003047.1245503</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731003048.357835</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731003047.1245503.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731003048.357835.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>21.475</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>21.339</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.1360000000000028</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.63</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731003178.790783</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731003179.3718038</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MXI1731003178.790783.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MXI1731003179.3718038.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>3031.55</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>3034.4</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>2.849999999999909</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731003180.0936213</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731003181.0023515</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MXI1731003180.0936213.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MXI1731003181.0023515.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>3028.35</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>3027.25</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-1.099999999999909</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731003192.1466782</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731003192.9273248</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MXI1731003192.1466782.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MXI1731003192.9273248.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>3023.65</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>3022.45</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>1.200000000000273</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731003193.4774108</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731003194.2029681</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MXI1731003193.4774108.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MXI1731003194.2029681.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>3024.75</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>3025.15</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.4000000000000909</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731003195.19602</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731003195.657877</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MXI1731003195.19602.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MXI1731003195.657877.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>3027.75</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>3023.3</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>4.449999999999818</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731003215.9885952</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731003218.76592</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731003215.9885952.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731003218.76592.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>34.885</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>34.84</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.0449999999999946</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -1708,7 +1946,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1732,6 +1970,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1745,6 +1998,15 @@
       <c r="C2" t="n">
         <v>5</v>
       </c>
+      <c r="D2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1758,6 +2020,15 @@
       <c r="C3" t="n">
         <v>4</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.07499999999999929</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1771,6 +2042,15 @@
       <c r="C4" t="n">
         <v>3</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.1066666666666668</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5299999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1784,6 +2064,15 @@
       <c r="C5" t="n">
         <v>2</v>
       </c>
+      <c r="D5" t="n">
+        <v>-0.2600000000000051</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.11</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1797,6 +2086,15 @@
       <c r="C6" t="n">
         <v>2</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1810,6 +2108,15 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.1360000000000028</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1823,6 +2130,15 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
+      <c r="D8" t="n">
+        <v>-0.7999999999999545</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1836,6 +2152,15 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
+      <c r="D9" t="n">
+        <v>15</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1849,6 +2174,15 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1862,6 +2196,15 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.8999999999999773</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1875,6 +2218,15 @@
       <c r="C12" t="n">
         <v>1</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.0449999999999946</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1888,6 +2240,15 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
+      <c r="D13" t="n">
+        <v>-0.3999999999999773</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.14</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1896,11 +2257,20 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0.5400000000000205</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
+      <c r="D14" t="n">
+        <v>-0.5400000000000205</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.38</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1914,6 +2284,11 @@
       <c r="C15" t="n">
         <v>0</v>
       </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
